--- a/biology/Botanique/Fabrique_de_jardin/Fabrique_de_jardin.xlsx
+++ b/biology/Botanique/Fabrique_de_jardin/Fabrique_de_jardin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une fabrique de jardin est une construction à vocation ornementale prenant part à une composition paysagère au sein d'un parc ou d'un jardin. Elle sert généralement à ponctuer le parcours du promeneur ou à marquer un point de vue pittoresque[1]. Prenant les formes les plus diverses, voire extravagantes, les fabriques évoquent en général des éléments architecturaux inspirés de l'Antiquité, de l'Histoire, de contrées exotiques ou de la nature. Les premières fabriques apparaissent dans les jardins anglais au début du XVIIIe siècle et se répandent avec la mode des jardins paysagers. De véritables parcs à fabriques voient ainsi le jour au cours des xviiie et xixe siècles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fabrique de jardin est une construction à vocation ornementale prenant part à une composition paysagère au sein d'un parc ou d'un jardin. Elle sert généralement à ponctuer le parcours du promeneur ou à marquer un point de vue pittoresque. Prenant les formes les plus diverses, voire extravagantes, les fabriques évoquent en général des éléments architecturaux inspirés de l'Antiquité, de l'Histoire, de contrées exotiques ou de la nature. Les premières fabriques apparaissent dans les jardins anglais au début du XVIIIe siècle et se répandent avec la mode des jardins paysagers. De véritables parcs à fabriques voient ainsi le jour au cours des xviiie et xixe siècles.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Michel Baridon, l'une des premières fabriques de jardin serait les ruines d'un ancien manoir, le manoir de Woodstock, présent dans le parc du château de Blenheim. Alors que la duchesse de Marlborough demande à l'architecte John Vanbrugh de détruire ces vestiges, celui-ci parvient à la convaincre de les intégrer dans la composition paysagère du parc irrégulier[2]. Ces constructions sont alors désignées sous le terme anglais de folly. Dès le XVIIIe siècle, le terme « fabrique » est utilisé pour désigner ce type de construction : « Tous les bâtiments d'effet et toutes les constructions que l'industrie humaine ajoute à la nature, pour l'embellissement des jardins[3]. » C'est sans doute Claude-Henri Watelet qui utilise le terme de fabrique pour la première fois pour les jardins dans son Essai sur les jardins (1774). Il rédige d'ailleurs l'article « Fabrique » dans l’Encyclopédie : terme utilisé alors dans le domaine de la peinture. Watelet incite les architectes à utiliser ces compositions[4].
-Par leur disposition et leur succession, elles assuraient l'articulation des points de vue et ponctuaient les circuits de promenade. L'implantation des fabriques dans le jardin pouvait répondre à une simple recherche du pittoresque, mais le romantisme de la fin du XVIIIe siècle enrichit leur disposition d'une dimension philosophique. La succession des fabriques sur le parcours du promeneur devenait alors un support à la réflexion : cénotaphe, temple de la philosophie[5], ermitage, grotte.
-Au-delà de leur aspect décoratif, l’aspect utilitaire de ces édifices fut souvent oublié par le temps. Pour cette raison, les fabriques de jardin furent parfois qualifiées de « bâtiments incompris[6] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Michel Baridon, l'une des premières fabriques de jardin serait les ruines d'un ancien manoir, le manoir de Woodstock, présent dans le parc du château de Blenheim. Alors que la duchesse de Marlborough demande à l'architecte John Vanbrugh de détruire ces vestiges, celui-ci parvient à la convaincre de les intégrer dans la composition paysagère du parc irrégulier. Ces constructions sont alors désignées sous le terme anglais de folly. Dès le XVIIIe siècle, le terme « fabrique » est utilisé pour désigner ce type de construction : « Tous les bâtiments d'effet et toutes les constructions que l'industrie humaine ajoute à la nature, pour l'embellissement des jardins. » C'est sans doute Claude-Henri Watelet qui utilise le terme de fabrique pour la première fois pour les jardins dans son Essai sur les jardins (1774). Il rédige d'ailleurs l'article « Fabrique » dans l’Encyclopédie : terme utilisé alors dans le domaine de la peinture. Watelet incite les architectes à utiliser ces compositions.
+Par leur disposition et leur succession, elles assuraient l'articulation des points de vue et ponctuaient les circuits de promenade. L'implantation des fabriques dans le jardin pouvait répondre à une simple recherche du pittoresque, mais le romantisme de la fin du XVIIIe siècle enrichit leur disposition d'une dimension philosophique. La succession des fabriques sur le parcours du promeneur devenait alors un support à la réflexion : cénotaphe, temple de la philosophie, ermitage, grotte.
+Au-delà de leur aspect décoratif, l’aspect utilitaire de ces édifices fut souvent oublié par le temps. Pour cette raison, les fabriques de jardin furent parfois qualifiées de « bâtiments incompris ».
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Typologies des fabriques de jardin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On regroupe couramment les fabriques de jardin en quatre typologies pittoresques principales :
 les fabriques classiques : inspirées de l’antique, elles comportent les temples, rotondes ou colonnades à motifs antiquisants ;
@@ -581,9 +597,11 @@
           <t>La restauration des fabriques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si les fabriques qui ont subsisté furent construites en dur, parfois pour sembler partiellement en ruine, la plupart d'entre elles ont disparu avec la réduction des parcs sous la pression urbaine[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si les fabriques qui ont subsisté furent construites en dur, parfois pour sembler partiellement en ruine, la plupart d'entre elles ont disparu avec la réduction des parcs sous la pression urbaine.
 Pour cette raison, et la légèreté de leur construction aidant, de nombreuses fabriques ont été déplacées. Ces changements de site ont malheureusement rompu la lecture du cheminement philosophique qui avait présidé à leur implantation.
 Les restaurations des fabriques mettent en général l'accent sur la reconstitution de la construction, oubliant l'aspect essentiel de leur environnement naturel. Les fabriques font partie intégrante des constructions végétales d'un jardin, avec lesquelles elles ont été conçues. La restauration des édifices doit donc aller de pair avec la restitution des arrangements végétaux (écrans de buissons, coloris des feuillages, trouées ou points de vue ménagés dans la végétation. Sur ce plan, la récente restauration du jardin anglais du Petit Trianon de Versailles est en tout point exemplaire.
 </t>
@@ -616,31 +634,206 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Allemagne
-Bayreuth : Eremitage et temple du Soleil du Neues Schloss (de) construit pour la margravine Wilhelmine, sœur du roi Frédéric II de Prusse
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bayreuth : Eremitage et temple du Soleil du Neues Schloss (de) construit pour la margravine Wilhelmine, sœur du roi Frédéric II de Prusse
 Englischer Garten, Munich, Bavière : pagode chinoise, monoptère…
 Neuschwanstein, dans le Hohenschwangau, Bavière
 Nymphenburg, Munich, Bavière : fabriques de Cuvilliés et de Leo von Klenze dans le parc du château, Amalienburg, Badenburg, Pagodenburg, Magdalenklause
 Pommersfelden
 Sans-Souci, Potsdam, palais du roi Frédéric II de Prusse : pavillon chinois, pavillon du thé, maison du Dragon, temple de l'Amitié
-Schwetzingen, le parc du château présente les fantaisies du château de Lunéville.
-Australie
-Nambour, Queensland : The Big Pineapple (en)
-Autriche
-Château d'Ambras
+Schwetzingen, le parc du château présente les fantaisies du château de Lunéville.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nambour, Queensland : The Big Pineapple (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autriche</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Château d'Ambras
 Château de Hellbrunn
-Château de Schönbrunn : la Gloriette
-Belgique
-Attre : rocher artificiel dans le parc du château
-États-Unis
-Château du Belvédère, Central Park, New York.
+Château de Schönbrunn : la Gloriette</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Attre : rocher artificiel dans le parc du château</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Château du Belvédère, Central Park, New York.
 Tour de Lawson (en), Scituate.
 Château d'eau de Ypsilanti (en), Ypsilanti.
 Bishop Castle, à l'extérieur de Pueblo.
 Korner's Folly (en), Kernersville.
-San Simeon, Californie
-France
-Amboise : Pagode du château de Chanteloup.
+San Simeon, Californie</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Amboise : Pagode du château de Chanteloup.
 Bougival : datcha de Tourgueniev
 Le Cellier : les Folies Siffait
 Chambourcy, près de Paris : désert de Retz, parc à fabriques du XVIIIe siècle
@@ -668,35 +861,311 @@
 Sceaux, parc de Sceaux : pavillon de Hanovre (1758-1760) provenant du jardin de l'hôtel d'Antin, à Paris (boulevard des Italiens)
 Versailles, Petit Trianon : fabriques du jardin anglais et du Hameau de la Reine
 Yerres (Essonne) : nombreuses fabriques du parc de la propriété Caillebotte
-Dax : la Tour de Borda, fabrique du XVIIIe siècle aujourd'hui à l'abandon.
-Hongrie
-Sopron : château de Taródi
+Dax : la Tour de Borda, fabrique du XVIIIe siècle aujourd'hui à l'abandon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hongrie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sopron : château de Taródi
 Székesfehérvár : château de Bory
-Château de Vajdahunyad dans le parc municipal de Budapest
-Inde
-Thalassery, Kerala : Overbury's Folly (en)
-Irlande
-Celbridge, comté de Kildare : Conolly's Folly (en)
+Château de Vajdahunyad dans le parc municipal de Budapest</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Inde</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Thalassery, Kerala : Overbury's Folly (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Irlande</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celbridge, comté de Kildare : Conolly's Folly (en)
 Celbridge, comté de Kildare : The Wonderful Barn
 Dublin : Casino de Marino (en)
-L'Irlande se caractérise également par ce que l'on appelle les « fabriques de la famine ». Lors de la grande famine de 1845-1849, due à la maladie de la pomme de terre, un million de personnes trouvèrent la mort. Dans la mesure du possible, il fallut aider les familles les plus pauvres. Toutefois, la mentalité de l'époque excluait l'idée de dédommager sans contrepartie les agriculteurs ruinés. Or, parallèlement, il eût été impossible de leur fournir du travail, car cela eût privé les ouvriers de leurs revenus. On recourut alors à une solution originale qui consista à leur proposer un travail inutile pour lequel ils recevraient une rétribution. Ainsi naquirent les « fabriques de la famine », constructions absurdes et aménagements sans objet : routes pavées qui ne menaient nulle part, murs extérieurs d'édifices inexistants, appontements au milieu des tourbières[8].
+L'Irlande se caractérise également par ce que l'on appelle les « fabriques de la famine ». Lors de la grande famine de 1845-1849, due à la maladie de la pomme de terre, un million de personnes trouvèrent la mort. Dans la mesure du possible, il fallut aider les familles les plus pauvres. Toutefois, la mentalité de l'époque excluait l'idée de dédommager sans contrepartie les agriculteurs ruinés. Or, parallèlement, il eût été impossible de leur fournir du travail, car cela eût privé les ouvriers de leurs revenus. On recourut alors à une solution originale qui consista à leur proposer un travail inutile pour lequel ils recevraient une rétribution. Ainsi naquirent les « fabriques de la famine », constructions absurdes et aménagements sans objet : routes pavées qui ne menaient nulle part, murs extérieurs d'édifices inexistants, appontements au milieu des tourbières.
 Une cinquantaine d'années plus tard, la McCaig's Tower, en Écosse, dut sa création à des impératifs du même ordre.
-Italie
-Bomarzo : jardins avec statues de monstres
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Bomarzo : jardins avec statues de monstres
 Caserte
 Florence : obélisque et pavillon Kaffeehaus du jardin de Boboli
 Isola Bella
-Palerme : pavillon chinois
-Pays-Bas
-Rosendael
-Pologne
-Palais de Dobrzyca : panthéon, monoptère, etc.
-Palais de Wilanow : pagode, etc.
-Portugal
-Fronteira
-Royaume-Uni
-Angleterre
-Bath : Prior Park, pont palladien, grotte et édifice gothique
+Palerme : pavillon chinois</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Rosendael</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pologne</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Palais de Dobrzyca : panthéon, monoptère, etc.
+Palais de Wilanow : pagode, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Fronteira</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Angleterre</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bath : Prior Park, pont palladien, grotte et édifice gothique
 Birmingham : Perrott's Folly (en)
 Brighton : pavillon du Régent
 Bristol : Goldney Hall (en), tour gothique
@@ -730,52 +1199,233 @@
 			Londres : la pagode des Kew Gardens.
 			Wilder's Folly (en), une fabrique de jardin dans le Berkshire
 			Temple gothique de Painshill Park, Surrey.
-Écosse
-Édimbourg : le Monument national d'Écosse sur Calton Hill, le Scott Monument sur Princes Street
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Édimbourg : le Monument national d'Écosse sur Calton Hill, le Scott Monument sur Princes Street
 Falkirk : Dunmore Pineapple
 Lugton (en), Renfrewshire : Caldwell Tower (en)
-Oban : McCaig's Tower (1895-1902)
-Galles
-Pontypool : Folly Tower (en)
-Portmeirion : ensemble de constructions formant un « village ». Il s'agit du « Village » créé par Sir Clough Williams-Ellis et où fut tournée la série télévisée Le Prisonnier des années 1970.
-Roumanie
-Château Iulia Hasdeu
-Russie
-Gatchina : pavillon à ciel ouvert
+Oban : McCaig's Tower (1895-1902)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Galles</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Pontypool : Folly Tower (en)
+Portmeirion : ensemble de constructions formant un « village ». Il s'agit du « Village » créé par Sir Clough Williams-Ellis et où fut tournée la série télévisée Le Prisonnier des années 1970.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Roumanie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Château Iulia Hasdeu</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Gatchina : pavillon à ciel ouvert
 Pavlovsk : petit fort « médiéval », ponts
 Peterhof : tours en ruine et chapelle
 Palais de Tsaritsyno
-Tsarskoïe Selo : village chinois, pavillons hollandais de l'Amirauté
-Suède
-Château de Drottningholm : plusieurs fabriques, dont le Pavillon chinois et la Tente tartare qui inspira celle de Charles de Beistegui au château de Groussay (France)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fabrique_de_jardin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Tsarskoïe Selo : village chinois, pavillons hollandais de l'Amirauté</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Suède</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Château de Drottningholm : plusieurs fabriques, dont le Pavillon chinois et la Tente tartare qui inspira celle de Charles de Beistegui au château de Groussay (France)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrique_de_jardin</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Mythologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">En dehors de la série culte Le Prisonnier de Patrick McGoohan, tournée à Portmeirion, les fabriques ont inspiré plusieurs romanciers : Agatha Christie en 1956 avec Poirot joue le jeu (Dead Man's Folly), où une fabrique de jardin offre la solution du mystère, ou encore Marcel Brion en 1963 avec La Folie Céladon, roman situé dans un pavillon rococo quelque part en Autriche, sur une île fluviale.
 </t>
